--- a/lab0/Х-Матрица_Евгенов.xlsx
+++ b/lab0/Х-Матрица_Евгенов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\daigaku\mmdss\mmdss_evgenov\lab0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65AE2E0-5ADD-4040-8863-02184ED943AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B847B5-ACDB-4379-9C27-6137A8DD5964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,9 +123,6 @@
     <t>Мероприятие создает (вносит вклад в) результат, который нужен Заказачику, но не является новым</t>
   </si>
   <si>
-    <t>Экономический анализ рынка</t>
-  </si>
-  <si>
     <t>Мероприятие вносит новизну в результат</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>Ролевые игры / симуляции в обучении</t>
+  </si>
+  <si>
+    <t>Технический анализ биржевой торговли</t>
   </si>
 </sst>
 </file>
@@ -799,7 +799,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -842,58 +842,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -903,29 +851,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -941,10 +872,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -960,13 +887,85 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1449,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AI1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:O5"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1483,16 +1482,16 @@
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
       <c r="N2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1501,16 +1500,16 @@
       <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1527,12 +1526,12 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
@@ -1556,38 +1555,38 @@
     </row>
     <row r="7" spans="3:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C7" s="6"/>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45" t="s">
+      <c r="F7" s="19"/>
+      <c r="G7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="65" t="s">
+      <c r="I7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="44" t="s">
+      <c r="J7" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="45" t="s">
+      <c r="Q7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="45"/>
-      <c r="S7" s="46" t="s">
+      <c r="R7" s="19"/>
+      <c r="S7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="T7" s="71" t="s">
+      <c r="T7" s="33" t="s">
         <v>13</v>
       </c>
       <c r="X7" s="2" t="s">
@@ -1599,34 +1598,34 @@
     </row>
     <row r="8" spans="3:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C8" s="6"/>
-      <c r="E8" s="49"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="25" t="s">
+      <c r="I8" s="29"/>
+      <c r="J8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="50" t="s">
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="22" t="s">
         <v>13</v>
       </c>
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
       <c r="S8" s="11"/>
-      <c r="T8" s="72" t="s">
+      <c r="T8" s="34" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="3:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C9" s="6"/>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="13" t="s">
@@ -1638,18 +1637,18 @@
       <c r="H9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="66" t="s">
+      <c r="I9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="49" t="s">
+      <c r="J9" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="21" t="s">
         <v>14</v>
       </c>
       <c r="Q9" s="10" t="s">
@@ -1658,391 +1657,391 @@
       <c r="R9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="S9" s="74" t="s">
+      <c r="S9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="T9" s="72" t="s">
+      <c r="T9" s="34" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="3:25" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C10" s="6"/>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="68" t="s">
+      <c r="G10" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="61"/>
-      <c r="I10" s="69" t="s">
+      <c r="H10" s="26"/>
+      <c r="I10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="59" t="s">
+      <c r="J10" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="Q10" s="60" t="s">
+      <c r="Q10" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="60"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="73" t="s">
+      <c r="R10" s="25"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="32"/>
-      <c r="E11" s="51" t="s">
+      <c r="C11" s="50"/>
+      <c r="E11" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="51" t="s">
+      <c r="J11" s="59"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q11" s="33" t="s">
+      <c r="Q11" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="R11" s="33" t="s">
+      <c r="R11" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="33" t="s">
+      <c r="S11" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="T11" s="54" t="s">
+      <c r="T11" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="U11" s="43"/>
+      <c r="U11" s="45"/>
     </row>
     <row r="12" spans="3:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="19"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="19"/>
+      <c r="C12" s="38"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="38"/>
     </row>
     <row r="13" spans="3:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="19"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="19"/>
+      <c r="C13" s="38"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="38"/>
     </row>
     <row r="14" spans="3:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="19"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="19"/>
+      <c r="C14" s="38"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="38"/>
     </row>
     <row r="15" spans="3:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="19"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="19"/>
+      <c r="C15" s="38"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="38"/>
     </row>
     <row r="16" spans="3:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="19"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="19"/>
+      <c r="C16" s="38"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="38"/>
     </row>
     <row r="17" spans="3:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="19"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="19"/>
+      <c r="C17" s="38"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="38"/>
     </row>
     <row r="18" spans="3:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="19"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="19"/>
+      <c r="C18" s="38"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="38"/>
     </row>
     <row r="19" spans="3:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="19"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="19"/>
+      <c r="C19" s="38"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="38"/>
     </row>
     <row r="20" spans="3:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="19"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="19"/>
+      <c r="C20" s="38"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="38"/>
     </row>
     <row r="21" spans="3:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="19"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="19"/>
+      <c r="C21" s="38"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="38"/>
     </row>
     <row r="22" spans="3:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="19"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="19"/>
+      <c r="C22" s="38"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="38"/>
     </row>
     <row r="23" spans="3:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="19"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="19"/>
+      <c r="C23" s="38"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="38"/>
     </row>
     <row r="24" spans="3:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="19"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="19"/>
+      <c r="C24" s="38"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="38"/>
     </row>
     <row r="25" spans="3:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="19"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="19"/>
+      <c r="C25" s="38"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="38"/>
     </row>
     <row r="26" spans="3:35" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="19"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="19"/>
+      <c r="C26" s="38"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="38"/>
     </row>
     <row r="27" spans="3:35" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C27" s="6"/>
-      <c r="E27" s="58"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="7" t="s">
         <v>13</v>
       </c>
@@ -2055,49 +2054,49 @@
       <c r="I27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="23" t="s">
+      <c r="J27" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="44" t="s">
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Q27" s="45" t="s">
+      <c r="Q27" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="R27" s="45" t="s">
+      <c r="R27" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="S27" s="46" t="s">
+      <c r="S27" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="T27" s="71" t="s">
+      <c r="T27" s="33" t="s">
         <v>14</v>
       </c>
       <c r="X27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Y27" s="42" t="s">
+      <c r="Y27" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="19"/>
-      <c r="AD27" s="19"/>
-      <c r="AE27" s="19"/>
-      <c r="AF27" s="19"/>
-      <c r="AG27" s="19"/>
-      <c r="AH27" s="19"/>
-      <c r="AI27" s="19"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="38"/>
+      <c r="AC27" s="38"/>
+      <c r="AD27" s="38"/>
+      <c r="AE27" s="38"/>
+      <c r="AF27" s="38"/>
+      <c r="AG27" s="38"/>
+      <c r="AH27" s="38"/>
+      <c r="AI27" s="38"/>
     </row>
     <row r="28" spans="3:35" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C28" s="6"/>
-      <c r="E28" s="50"/>
+      <c r="E28" s="22"/>
       <c r="F28" s="13" t="s">
         <v>13</v>
       </c>
@@ -2108,15 +2107,15 @@
         <v>12</v>
       </c>
       <c r="I28" s="12"/>
-      <c r="J28" s="31" t="s">
+      <c r="J28" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="50" t="s">
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="22" t="s">
         <v>13</v>
       </c>
       <c r="Q28" s="13" t="s">
@@ -2124,29 +2123,29 @@
       </c>
       <c r="R28" s="13"/>
       <c r="S28" s="11"/>
-      <c r="T28" s="72" t="s">
+      <c r="T28" s="34" t="s">
         <v>13</v>
       </c>
       <c r="X28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Y28" s="42" t="s">
+      <c r="Y28" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
-      <c r="AD28" s="19"/>
-      <c r="AE28" s="19"/>
-      <c r="AF28" s="19"/>
-      <c r="AG28" s="19"/>
-      <c r="AH28" s="19"/>
-      <c r="AI28" s="19"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="38"/>
+      <c r="AC28" s="38"/>
+      <c r="AD28" s="38"/>
+      <c r="AE28" s="38"/>
+      <c r="AF28" s="38"/>
+      <c r="AG28" s="38"/>
+      <c r="AH28" s="38"/>
+      <c r="AI28" s="38"/>
     </row>
     <row r="29" spans="3:35" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C29" s="6"/>
-      <c r="E29" s="50"/>
+      <c r="E29" s="22"/>
       <c r="F29" s="13" t="s">
         <v>12</v>
       </c>
@@ -2155,15 +2154,15 @@
         <v>12</v>
       </c>
       <c r="I29" s="12"/>
-      <c r="J29" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="50" t="s">
+      <c r="J29" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="22" t="s">
         <v>12</v>
       </c>
       <c r="Q29" s="13" t="s">
@@ -2173,29 +2172,29 @@
         <v>12</v>
       </c>
       <c r="S29" s="11"/>
-      <c r="T29" s="72" t="s">
+      <c r="T29" s="34" t="s">
         <v>13</v>
       </c>
       <c r="X29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Y29" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
-      <c r="AD29" s="19"/>
-      <c r="AE29" s="19"/>
-      <c r="AF29" s="19"/>
-      <c r="AG29" s="19"/>
-      <c r="AH29" s="19"/>
-      <c r="AI29" s="19"/>
+      <c r="Y29" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="38"/>
+      <c r="AC29" s="38"/>
+      <c r="AD29" s="38"/>
+      <c r="AE29" s="38"/>
+      <c r="AF29" s="38"/>
+      <c r="AG29" s="38"/>
+      <c r="AH29" s="38"/>
+      <c r="AI29" s="38"/>
     </row>
     <row r="30" spans="3:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C30" s="6"/>
-      <c r="E30" s="50" t="s">
+      <c r="E30" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="13" t="s">
@@ -2210,27 +2209,27 @@
       <c r="I30" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="50"/>
+      <c r="J30" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="22"/>
       <c r="Q30" s="13"/>
       <c r="R30" s="13"/>
       <c r="S30" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="T30" s="72" t="s">
+      <c r="T30" s="34" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="3:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C31" s="6"/>
-      <c r="E31" s="50" t="s">
+      <c r="E31" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="13"/>
@@ -2239,15 +2238,15 @@
         <v>12</v>
       </c>
       <c r="I31" s="12"/>
-      <c r="J31" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="50" t="s">
+      <c r="J31" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="22" t="s">
         <v>12</v>
       </c>
       <c r="Q31" s="13" t="s">
@@ -2257,14 +2256,14 @@
         <v>13</v>
       </c>
       <c r="S31" s="11"/>
-      <c r="T31" s="72" t="s">
+      <c r="T31" s="34" t="s">
         <v>13</v>
       </c>
       <c r="W31" s="4"/>
     </row>
     <row r="32" spans="3:35" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C32" s="6"/>
-      <c r="E32" s="50"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="13" t="s">
         <v>12</v>
       </c>
@@ -2273,15 +2272,15 @@
         <v>13</v>
       </c>
       <c r="I32" s="12"/>
-      <c r="J32" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="50" t="s">
+      <c r="J32" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="22" t="s">
         <v>13</v>
       </c>
       <c r="Q32" s="13"/>
@@ -2289,40 +2288,40 @@
         <v>14</v>
       </c>
       <c r="S32" s="11"/>
-      <c r="T32" s="72"/>
+      <c r="T32" s="34"/>
     </row>
     <row r="33" spans="3:26" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C33" s="6"/>
-      <c r="E33" s="59" t="s">
+      <c r="E33" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="60" t="s">
+      <c r="F33" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="60" t="s">
+      <c r="G33" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="61" t="s">
+      <c r="H33" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="62"/>
-      <c r="J33" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="K33" s="64"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="64"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="64"/>
-      <c r="P33" s="59" t="s">
+      <c r="I33" s="27"/>
+      <c r="J33" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="Q33" s="60"/>
-      <c r="R33" s="60" t="s">
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="S33" s="61"/>
-      <c r="T33" s="73" t="s">
+      <c r="S33" s="26"/>
+      <c r="T33" s="35" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2332,7 +2331,7 @@
     <row r="35" spans="3:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="3:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J36" s="4"/>
       <c r="Z36" s="4"/>
@@ -2342,7 +2341,7 @@
         <v>7</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="3:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2350,7 +2349,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="3:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2358,7 +2357,7 @@
         <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="3:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3367,15 +3366,16 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="Y28:AI28"/>
-    <mergeCell ref="Y29:AI29"/>
-    <mergeCell ref="P11:P26"/>
-    <mergeCell ref="Q11:Q26"/>
-    <mergeCell ref="R11:R26"/>
-    <mergeCell ref="S11:S26"/>
-    <mergeCell ref="T11:T26"/>
-    <mergeCell ref="U11:U26"/>
-    <mergeCell ref="Y27:AI27"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="J29:O29"/>
     <mergeCell ref="J30:O30"/>
     <mergeCell ref="J31:O31"/>
     <mergeCell ref="J32:O32"/>
@@ -3387,16 +3387,15 @@
     <mergeCell ref="H11:H26"/>
     <mergeCell ref="I11:I26"/>
     <mergeCell ref="J11:O26"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="J29:O29"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="Y28:AI28"/>
+    <mergeCell ref="Y29:AI29"/>
+    <mergeCell ref="P11:P26"/>
+    <mergeCell ref="Q11:Q26"/>
+    <mergeCell ref="R11:R26"/>
+    <mergeCell ref="S11:S26"/>
+    <mergeCell ref="T11:T26"/>
+    <mergeCell ref="U11:U26"/>
+    <mergeCell ref="Y27:AI27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
